--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -406,10 +406,10 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -430,6 +430,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -442,22 +448,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -550,43 +546,99 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,79 +646,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,18 +849,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,19 +3931,6 @@
     <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1004" s="6"/>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3969,41 +3954,42 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="15.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="b">
+      <c r="E1" s="16" t="b">
         <f aca="false">AND(E2:E832)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="b">
+      <c r="F1" s="16" t="b">
         <f aca="false">AND(F2:F832)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -4023,10 +4009,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4049,7 +4035,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4072,7 +4058,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -4095,7 +4081,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -4118,7 +4104,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -4138,43 +4124,37 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="G13" s="1"/>
@@ -4202,24 +4182,25 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="16.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="b">
+      <c r="B1" s="25" t="b">
         <f aca="false">AND(B2:B905)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="13" t="n">
         <v>45658</v>
       </c>
       <c r="B2" s="6" t="b">
@@ -4228,7 +4209,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="13" t="n">
         <v>45661</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -4240,133 +4221,133 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4388,24 +4369,25 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="21.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -4413,7 +4395,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="13" t="n">
         <v>45655</v>
       </c>
       <c r="B2" s="7" t="n">
@@ -4446,42 +4428,43 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -4501,17 +4484,17 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>45671</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="7" t="n">
@@ -4548,38 +4531,39 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -4599,17 +4583,17 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>45671</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="7" t="n">
@@ -4640,38 +4624,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="27" t="s">
@@ -4691,7 +4676,7 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
@@ -4709,6 +4694,9 @@
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4732,32 +4720,33 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4771,7 +4760,7 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="7" t="n">
@@ -4803,32 +4792,33 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4842,7 +4832,7 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -4874,43 +4864,44 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4924,10 +4915,10 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="7" t="n">
@@ -4965,11 +4956,12 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,8 +5053,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
@@ -5105,204 +5097,204 @@
       <c r="C15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5321,32 +5313,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="b">
+      <c r="C1" s="16" t="b">
         <f aca="false">AND(C2:C938)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="b">
+      <c r="D1" s="16" t="b">
         <f aca="false">AND(D2:D938)</f>
         <v>1</v>
       </c>
@@ -5354,7 +5347,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5445,165 +5438,6 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5627,149 +5461,150 @@
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="18" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="e">
+      <c r="G1" s="16" t="e">
         <f aca="false">AND(G2:G938)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H1" s="5" t="e">
+      <c r="H1" s="16" t="e">
         <f aca="false">AND(H2:H938)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="17"/>
@@ -6125,34 +5960,35 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6523,32 +6359,33 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -6980,31 +6817,32 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7375,180 +7213,181 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7572,36 +7411,37 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="b">
+      <c r="D1" s="16" t="b">
         <f aca="false">AND(D2:D900)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="21" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="6" t="b">
@@ -7610,13 +7450,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="21" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="21" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="6" t="b">
@@ -7625,194 +7465,194 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -541,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,10 +551,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,10 +845,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,19 +856,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="b">
+      <c r="C1" s="4" t="b">
         <f aca="false">AND(C2:C987)</f>
         <v>1</v>
       </c>
@@ -884,11 +880,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -897,11 +892,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -910,3026 +904,3010 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="6"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="6"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="6"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="6"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="6"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="6"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="6"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="6"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="6"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="6"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="6"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="6"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="6"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="6"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="6"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="6"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="6"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="6"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="6"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="6"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="6"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="6"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="6"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="6"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="6"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="6"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="6"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="6"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="6"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="6"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="6"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="6"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="6"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="6"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="6"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="6"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="6"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="6"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="6"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="6"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="6"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="6"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="6"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="6"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="6"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="6"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="6"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="6"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="6"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="6"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="6"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="6"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="6"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="6"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="6"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="6"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="6"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="6"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="6"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="6"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="6"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="6"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="6"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="6"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="6"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="6"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="6"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="6"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="6"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="6"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="6"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="6"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="6"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="6"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="6"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="6"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="6"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="6"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="6"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="6"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="6"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="6"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="6"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="6"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="6"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="6"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="6"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="6"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="6"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="6"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="6"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="6"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="6"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="6"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="6"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="6"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="6"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="6"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="6"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="6"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="6"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="6"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="6"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="6"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="6"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="6"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="6"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="6"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="6"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="6"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="6"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="6"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="6"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="6"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="6"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="6"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="6"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="6"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="6"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="6"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="6"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="6"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="6"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="6"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="6"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="6"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="6"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="6"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="6"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="6"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="6"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="6"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="6"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="6"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="6"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="6"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="6"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="6"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="6"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="6"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="6"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="6"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="6"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="6"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="6"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="6"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="6"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="6"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="6"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="6"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="6"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="6"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="6"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="6"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="6"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="6"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="6"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="6"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="6"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="6"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="6"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="6"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="6"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="6"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="6"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="6"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="6"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="6"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="6"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="6"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="6"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="6"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="6"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="6"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="6"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="6"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="6"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="6"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="6"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="6"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="6"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="6"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="6"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="6"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="6"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="6"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="6"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="6"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="6"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="6"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="6"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="6"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="6"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="6"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="6"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="6"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="6"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="6"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="6"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="6"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="6"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="6"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="6"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="6"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="6"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="6"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="6"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="6"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="6"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="6"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="6"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="6"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="6"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="6"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="6"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="6"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="6"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="6"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="6"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="6"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="6"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="6"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="6"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="6"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="6"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="6"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="6"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="6"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="6"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="6"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="6"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="6"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="6"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="6"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="6"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="6"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="6"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="6"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="6"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="6"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="6"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="6"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="6"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="6"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="6"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="6"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="6"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="6"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="6"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="6"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="6"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="6"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="6"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="6"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="6"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="6"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="6"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="6"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="6"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="6"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="6"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="6"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="6"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="6"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="6"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="6"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="6"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="6"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="6"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="6"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="6"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="6"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="6"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="6"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="6"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="6"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="6"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="6"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="6"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="6"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="6"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="6"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="6"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="6"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="6"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="6"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="6"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="6"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="6"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="6"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="6"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="6"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="6"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="6"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="6"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="6"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="6"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="6"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="6"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="6"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="6"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="6"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="6"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="6"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="6"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="6"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="6"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="6"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="6"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="6"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="6"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="6"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="6"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="6"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="6"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="6"/>
+      <c r="C414" s="5"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="6"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="6"/>
+      <c r="C416" s="5"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="6"/>
+      <c r="C417" s="5"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="6"/>
+      <c r="C418" s="5"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="6"/>
+      <c r="C419" s="5"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="6"/>
+      <c r="C420" s="5"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="6"/>
+      <c r="C421" s="5"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="6"/>
+      <c r="C422" s="5"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="6"/>
+      <c r="C423" s="5"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="6"/>
+      <c r="C424" s="5"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="6"/>
+      <c r="C425" s="5"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="6"/>
+      <c r="C426" s="5"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="6"/>
+      <c r="C427" s="5"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="6"/>
+      <c r="C428" s="5"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="6"/>
+      <c r="C429" s="5"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="6"/>
+      <c r="C430" s="5"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="6"/>
+      <c r="C431" s="5"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="6"/>
+      <c r="C432" s="5"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="6"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="6"/>
+      <c r="C434" s="5"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="6"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="6"/>
+      <c r="C436" s="5"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="6"/>
+      <c r="C437" s="5"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="6"/>
+      <c r="C438" s="5"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="6"/>
+      <c r="C439" s="5"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="6"/>
+      <c r="C440" s="5"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="6"/>
+      <c r="C441" s="5"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="6"/>
+      <c r="C442" s="5"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="6"/>
+      <c r="C443" s="5"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="6"/>
+      <c r="C444" s="5"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="6"/>
+      <c r="C445" s="5"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="6"/>
+      <c r="C446" s="5"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="6"/>
+      <c r="C447" s="5"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="6"/>
+      <c r="C448" s="5"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="6"/>
+      <c r="C449" s="5"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="6"/>
+      <c r="C450" s="5"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="6"/>
+      <c r="C451" s="5"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="6"/>
+      <c r="C452" s="5"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="6"/>
+      <c r="C453" s="5"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="6"/>
+      <c r="C454" s="5"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="6"/>
+      <c r="C455" s="5"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="6"/>
+      <c r="C456" s="5"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="6"/>
+      <c r="C457" s="5"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="6"/>
+      <c r="C458" s="5"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="6"/>
+      <c r="C459" s="5"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="6"/>
+      <c r="C460" s="5"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="6"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="6"/>
+      <c r="C462" s="5"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="6"/>
+      <c r="C463" s="5"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="6"/>
+      <c r="C464" s="5"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="6"/>
+      <c r="C465" s="5"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="6"/>
+      <c r="C466" s="5"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="6"/>
+      <c r="C467" s="5"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="6"/>
+      <c r="C468" s="5"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="6"/>
+      <c r="C469" s="5"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="6"/>
+      <c r="C470" s="5"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="6"/>
+      <c r="C471" s="5"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="6"/>
+      <c r="C472" s="5"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="6"/>
+      <c r="C473" s="5"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="6"/>
+      <c r="C474" s="5"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="6"/>
+      <c r="C475" s="5"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="6"/>
+      <c r="C476" s="5"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="6"/>
+      <c r="C477" s="5"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="6"/>
+      <c r="C478" s="5"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="6"/>
+      <c r="C479" s="5"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="6"/>
+      <c r="C480" s="5"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="6"/>
+      <c r="C481" s="5"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="6"/>
+      <c r="C482" s="5"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="6"/>
+      <c r="C483" s="5"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="6"/>
+      <c r="C484" s="5"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="6"/>
+      <c r="C485" s="5"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="6"/>
+      <c r="C486" s="5"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="6"/>
+      <c r="C487" s="5"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="6"/>
+      <c r="C488" s="5"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="6"/>
+      <c r="C489" s="5"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="6"/>
+      <c r="C490" s="5"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="6"/>
+      <c r="C491" s="5"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="6"/>
+      <c r="C492" s="5"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="6"/>
+      <c r="C493" s="5"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="6"/>
+      <c r="C494" s="5"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="6"/>
+      <c r="C495" s="5"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="6"/>
+      <c r="C496" s="5"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="6"/>
+      <c r="C497" s="5"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="6"/>
+      <c r="C498" s="5"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="6"/>
+      <c r="C499" s="5"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="6"/>
+      <c r="C500" s="5"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="6"/>
+      <c r="C501" s="5"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="6"/>
+      <c r="C502" s="5"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="6"/>
+      <c r="C503" s="5"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="6"/>
+      <c r="C504" s="5"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="6"/>
+      <c r="C505" s="5"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="6"/>
+      <c r="C506" s="5"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="6"/>
+      <c r="C507" s="5"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="6"/>
+      <c r="C508" s="5"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="6"/>
+      <c r="C509" s="5"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="6"/>
+      <c r="C510" s="5"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="6"/>
+      <c r="C511" s="5"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="6"/>
+      <c r="C512" s="5"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="6"/>
+      <c r="C513" s="5"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="6"/>
+      <c r="C514" s="5"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="6"/>
+      <c r="C515" s="5"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="6"/>
+      <c r="C516" s="5"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="6"/>
+      <c r="C517" s="5"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="6"/>
+      <c r="C518" s="5"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="6"/>
+      <c r="C519" s="5"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="6"/>
+      <c r="C520" s="5"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="6"/>
+      <c r="C521" s="5"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="6"/>
+      <c r="C522" s="5"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="6"/>
+      <c r="C523" s="5"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="6"/>
+      <c r="C524" s="5"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="6"/>
+      <c r="C525" s="5"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="6"/>
+      <c r="C526" s="5"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="6"/>
+      <c r="C527" s="5"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="6"/>
+      <c r="C528" s="5"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="6"/>
+      <c r="C529" s="5"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="6"/>
+      <c r="C530" s="5"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="6"/>
+      <c r="C531" s="5"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="6"/>
+      <c r="C532" s="5"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="6"/>
+      <c r="C533" s="5"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="6"/>
+      <c r="C534" s="5"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="6"/>
+      <c r="C535" s="5"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="6"/>
+      <c r="C536" s="5"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="6"/>
+      <c r="C537" s="5"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="6"/>
+      <c r="C538" s="5"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="6"/>
+      <c r="C539" s="5"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="6"/>
+      <c r="C540" s="5"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="6"/>
+      <c r="C541" s="5"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="6"/>
+      <c r="C542" s="5"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="6"/>
+      <c r="C543" s="5"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="6"/>
+      <c r="C544" s="5"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="6"/>
+      <c r="C545" s="5"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="6"/>
+      <c r="C546" s="5"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="6"/>
+      <c r="C547" s="5"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="6"/>
+      <c r="C548" s="5"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="6"/>
+      <c r="C549" s="5"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="6"/>
+      <c r="C550" s="5"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="6"/>
+      <c r="C551" s="5"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="6"/>
+      <c r="C552" s="5"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="6"/>
+      <c r="C553" s="5"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="6"/>
+      <c r="C554" s="5"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="6"/>
+      <c r="C555" s="5"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="6"/>
+      <c r="C556" s="5"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="6"/>
+      <c r="C557" s="5"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="6"/>
+      <c r="C558" s="5"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="6"/>
+      <c r="C559" s="5"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="6"/>
+      <c r="C560" s="5"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="6"/>
+      <c r="C561" s="5"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="6"/>
+      <c r="C562" s="5"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="6"/>
+      <c r="C563" s="5"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="6"/>
+      <c r="C564" s="5"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="6"/>
+      <c r="C565" s="5"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="6"/>
+      <c r="C566" s="5"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="6"/>
+      <c r="C567" s="5"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="6"/>
+      <c r="C568" s="5"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="6"/>
+      <c r="C569" s="5"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="6"/>
+      <c r="C570" s="5"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="6"/>
+      <c r="C571" s="5"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="6"/>
+      <c r="C572" s="5"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="6"/>
+      <c r="C573" s="5"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="6"/>
+      <c r="C574" s="5"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="6"/>
+      <c r="C575" s="5"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="6"/>
+      <c r="C576" s="5"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="6"/>
+      <c r="C577" s="5"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="6"/>
+      <c r="C578" s="5"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="6"/>
+      <c r="C579" s="5"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="6"/>
+      <c r="C580" s="5"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="6"/>
+      <c r="C581" s="5"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="6"/>
+      <c r="C582" s="5"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="6"/>
+      <c r="C583" s="5"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="6"/>
+      <c r="C584" s="5"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="6"/>
+      <c r="C585" s="5"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="6"/>
+      <c r="C586" s="5"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="6"/>
+      <c r="C587" s="5"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="6"/>
+      <c r="C588" s="5"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="6"/>
+      <c r="C589" s="5"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="6"/>
+      <c r="C590" s="5"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="6"/>
+      <c r="C591" s="5"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="6"/>
+      <c r="C592" s="5"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="6"/>
+      <c r="C593" s="5"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="6"/>
+      <c r="C594" s="5"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="6"/>
+      <c r="C595" s="5"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="6"/>
+      <c r="C596" s="5"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="6"/>
+      <c r="C597" s="5"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="6"/>
+      <c r="C598" s="5"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="6"/>
+      <c r="C599" s="5"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="6"/>
+      <c r="C600" s="5"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="6"/>
+      <c r="C601" s="5"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="6"/>
+      <c r="C602" s="5"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="6"/>
+      <c r="C603" s="5"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="6"/>
+      <c r="C604" s="5"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="6"/>
+      <c r="C605" s="5"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="6"/>
+      <c r="C606" s="5"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="6"/>
+      <c r="C607" s="5"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="6"/>
+      <c r="C608" s="5"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="6"/>
+      <c r="C609" s="5"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="6"/>
+      <c r="C610" s="5"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="6"/>
+      <c r="C611" s="5"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="6"/>
+      <c r="C612" s="5"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="6"/>
+      <c r="C613" s="5"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="6"/>
+      <c r="C614" s="5"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="6"/>
+      <c r="C615" s="5"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="6"/>
+      <c r="C616" s="5"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="6"/>
+      <c r="C617" s="5"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="6"/>
+      <c r="C618" s="5"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="6"/>
+      <c r="C619" s="5"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="6"/>
+      <c r="C620" s="5"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="6"/>
+      <c r="C621" s="5"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="6"/>
+      <c r="C622" s="5"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="6"/>
+      <c r="C623" s="5"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="6"/>
+      <c r="C624" s="5"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="6"/>
+      <c r="C625" s="5"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="6"/>
+      <c r="C626" s="5"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="6"/>
+      <c r="C627" s="5"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="6"/>
+      <c r="C628" s="5"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="6"/>
+      <c r="C629" s="5"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="6"/>
+      <c r="C630" s="5"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="6"/>
+      <c r="C631" s="5"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="6"/>
+      <c r="C632" s="5"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="6"/>
+      <c r="C633" s="5"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="6"/>
+      <c r="C634" s="5"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="6"/>
+      <c r="C635" s="5"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="6"/>
+      <c r="C636" s="5"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="6"/>
+      <c r="C637" s="5"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="6"/>
+      <c r="C638" s="5"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="6"/>
+      <c r="C639" s="5"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="6"/>
+      <c r="C640" s="5"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="6"/>
+      <c r="C641" s="5"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="6"/>
+      <c r="C642" s="5"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="6"/>
+      <c r="C643" s="5"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="6"/>
+      <c r="C644" s="5"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="6"/>
+      <c r="C645" s="5"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="6"/>
+      <c r="C646" s="5"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="6"/>
+      <c r="C647" s="5"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="6"/>
+      <c r="C648" s="5"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="6"/>
+      <c r="C649" s="5"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="6"/>
+      <c r="C650" s="5"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="6"/>
+      <c r="C651" s="5"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="6"/>
+      <c r="C652" s="5"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="6"/>
+      <c r="C653" s="5"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="6"/>
+      <c r="C654" s="5"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="6"/>
+      <c r="C655" s="5"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="6"/>
+      <c r="C656" s="5"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="6"/>
+      <c r="C657" s="5"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="6"/>
+      <c r="C658" s="5"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="6"/>
+      <c r="C659" s="5"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="6"/>
+      <c r="C660" s="5"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="6"/>
+      <c r="C661" s="5"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="6"/>
+      <c r="C662" s="5"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="6"/>
+      <c r="C663" s="5"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="6"/>
+      <c r="C664" s="5"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="6"/>
+      <c r="C665" s="5"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="6"/>
+      <c r="C666" s="5"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="6"/>
+      <c r="C667" s="5"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="6"/>
+      <c r="C668" s="5"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="6"/>
+      <c r="C669" s="5"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="6"/>
+      <c r="C670" s="5"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="6"/>
+      <c r="C671" s="5"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="6"/>
+      <c r="C672" s="5"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="6"/>
+      <c r="C673" s="5"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="6"/>
+      <c r="C674" s="5"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="6"/>
+      <c r="C675" s="5"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="6"/>
+      <c r="C676" s="5"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="6"/>
+      <c r="C677" s="5"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="6"/>
+      <c r="C678" s="5"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="6"/>
+      <c r="C679" s="5"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="6"/>
+      <c r="C680" s="5"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="6"/>
+      <c r="C681" s="5"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="6"/>
+      <c r="C682" s="5"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="6"/>
+      <c r="C683" s="5"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="6"/>
+      <c r="C684" s="5"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="6"/>
+      <c r="C685" s="5"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="6"/>
+      <c r="C686" s="5"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="6"/>
+      <c r="C687" s="5"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="6"/>
+      <c r="C688" s="5"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="6"/>
+      <c r="C689" s="5"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="6"/>
+      <c r="C690" s="5"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="6"/>
+      <c r="C691" s="5"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="6"/>
+      <c r="C692" s="5"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="6"/>
+      <c r="C693" s="5"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="6"/>
+      <c r="C694" s="5"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="6"/>
+      <c r="C695" s="5"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="6"/>
+      <c r="C696" s="5"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="6"/>
+      <c r="C697" s="5"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="6"/>
+      <c r="C698" s="5"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="6"/>
+      <c r="C699" s="5"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="6"/>
+      <c r="C700" s="5"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="6"/>
+      <c r="C701" s="5"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="6"/>
+      <c r="C702" s="5"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="6"/>
+      <c r="C703" s="5"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="6"/>
+      <c r="C704" s="5"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="6"/>
+      <c r="C705" s="5"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="6"/>
+      <c r="C706" s="5"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="6"/>
+      <c r="C707" s="5"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="6"/>
+      <c r="C708" s="5"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="6"/>
+      <c r="C709" s="5"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="6"/>
+      <c r="C710" s="5"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="6"/>
+      <c r="C711" s="5"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="6"/>
+      <c r="C712" s="5"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="6"/>
+      <c r="C713" s="5"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="6"/>
+      <c r="C714" s="5"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="6"/>
+      <c r="C715" s="5"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="6"/>
+      <c r="C716" s="5"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="6"/>
+      <c r="C717" s="5"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="6"/>
+      <c r="C718" s="5"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="6"/>
+      <c r="C719" s="5"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="6"/>
+      <c r="C720" s="5"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="6"/>
+      <c r="C721" s="5"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="6"/>
+      <c r="C722" s="5"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="6"/>
+      <c r="C723" s="5"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="6"/>
+      <c r="C724" s="5"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="6"/>
+      <c r="C725" s="5"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="6"/>
+      <c r="C726" s="5"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="6"/>
+      <c r="C727" s="5"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="6"/>
+      <c r="C728" s="5"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="6"/>
+      <c r="C729" s="5"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="6"/>
+      <c r="C730" s="5"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="6"/>
+      <c r="C731" s="5"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="6"/>
+      <c r="C732" s="5"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="6"/>
+      <c r="C733" s="5"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="6"/>
+      <c r="C734" s="5"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="6"/>
+      <c r="C735" s="5"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="6"/>
+      <c r="C736" s="5"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="6"/>
+      <c r="C737" s="5"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="6"/>
+      <c r="C738" s="5"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="6"/>
+      <c r="C739" s="5"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="6"/>
+      <c r="C740" s="5"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="6"/>
+      <c r="C741" s="5"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="6"/>
+      <c r="C742" s="5"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="6"/>
+      <c r="C743" s="5"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="6"/>
+      <c r="C744" s="5"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="6"/>
+      <c r="C745" s="5"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="6"/>
+      <c r="C746" s="5"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="6"/>
+      <c r="C747" s="5"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="6"/>
+      <c r="C748" s="5"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="6"/>
+      <c r="C749" s="5"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="6"/>
+      <c r="C750" s="5"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="6"/>
+      <c r="C751" s="5"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="6"/>
+      <c r="C752" s="5"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="6"/>
+      <c r="C753" s="5"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="6"/>
+      <c r="C754" s="5"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="6"/>
+      <c r="C755" s="5"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="6"/>
+      <c r="C756" s="5"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="6"/>
+      <c r="C757" s="5"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="6"/>
+      <c r="C758" s="5"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="6"/>
+      <c r="C759" s="5"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="6"/>
+      <c r="C760" s="5"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="6"/>
+      <c r="C761" s="5"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="6"/>
+      <c r="C762" s="5"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="6"/>
+      <c r="C763" s="5"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="6"/>
+      <c r="C764" s="5"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="6"/>
+      <c r="C765" s="5"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="6"/>
+      <c r="C766" s="5"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="6"/>
+      <c r="C767" s="5"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="6"/>
+      <c r="C768" s="5"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="6"/>
+      <c r="C769" s="5"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="6"/>
+      <c r="C770" s="5"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="6"/>
+      <c r="C771" s="5"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="6"/>
+      <c r="C772" s="5"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="6"/>
+      <c r="C773" s="5"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="6"/>
+      <c r="C774" s="5"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="6"/>
+      <c r="C775" s="5"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="6"/>
+      <c r="C776" s="5"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="6"/>
+      <c r="C777" s="5"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="6"/>
+      <c r="C778" s="5"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="6"/>
+      <c r="C779" s="5"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="6"/>
+      <c r="C780" s="5"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="6"/>
+      <c r="C781" s="5"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="6"/>
+      <c r="C782" s="5"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="6"/>
+      <c r="C783" s="5"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="6"/>
+      <c r="C784" s="5"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="6"/>
+      <c r="C785" s="5"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="6"/>
+      <c r="C786" s="5"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="6"/>
+      <c r="C787" s="5"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="6"/>
+      <c r="C788" s="5"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="6"/>
+      <c r="C789" s="5"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="6"/>
+      <c r="C790" s="5"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="6"/>
+      <c r="C791" s="5"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="6"/>
+      <c r="C792" s="5"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="6"/>
+      <c r="C793" s="5"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="6"/>
+      <c r="C794" s="5"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="6"/>
+      <c r="C795" s="5"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="6"/>
+      <c r="C796" s="5"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="6"/>
+      <c r="C797" s="5"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="6"/>
+      <c r="C798" s="5"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="6"/>
+      <c r="C799" s="5"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="6"/>
+      <c r="C800" s="5"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="6"/>
+      <c r="C801" s="5"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="6"/>
+      <c r="C802" s="5"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="6"/>
+      <c r="C803" s="5"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="6"/>
+      <c r="C804" s="5"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="6"/>
+      <c r="C805" s="5"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="6"/>
+      <c r="C806" s="5"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="6"/>
+      <c r="C807" s="5"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="6"/>
+      <c r="C808" s="5"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="6"/>
+      <c r="C809" s="5"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="6"/>
+      <c r="C810" s="5"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="6"/>
+      <c r="C811" s="5"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="6"/>
+      <c r="C812" s="5"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="6"/>
+      <c r="C813" s="5"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="6"/>
+      <c r="C814" s="5"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="6"/>
+      <c r="C815" s="5"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="6"/>
+      <c r="C816" s="5"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="6"/>
+      <c r="C817" s="5"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="6"/>
+      <c r="C818" s="5"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="6"/>
+      <c r="C819" s="5"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="6"/>
+      <c r="C820" s="5"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="6"/>
+      <c r="C821" s="5"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="6"/>
+      <c r="C822" s="5"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="6"/>
+      <c r="C823" s="5"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="6"/>
+      <c r="C824" s="5"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="6"/>
+      <c r="C825" s="5"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="6"/>
+      <c r="C826" s="5"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="6"/>
+      <c r="C827" s="5"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="6"/>
+      <c r="C828" s="5"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="6"/>
+      <c r="C829" s="5"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="6"/>
+      <c r="C830" s="5"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="6"/>
+      <c r="C831" s="5"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="6"/>
+      <c r="C832" s="5"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="6"/>
+      <c r="C833" s="5"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="6"/>
+      <c r="C834" s="5"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="6"/>
+      <c r="C835" s="5"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="6"/>
+      <c r="C836" s="5"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="6"/>
+      <c r="C837" s="5"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="6"/>
+      <c r="C838" s="5"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="6"/>
+      <c r="C839" s="5"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="6"/>
+      <c r="C840" s="5"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="6"/>
+      <c r="C841" s="5"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="6"/>
+      <c r="C842" s="5"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="6"/>
+      <c r="C843" s="5"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="6"/>
+      <c r="C844" s="5"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="6"/>
+      <c r="C845" s="5"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="6"/>
+      <c r="C846" s="5"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="6"/>
+      <c r="C847" s="5"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="6"/>
+      <c r="C848" s="5"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="6"/>
+      <c r="C849" s="5"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="6"/>
+      <c r="C850" s="5"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="6"/>
+      <c r="C851" s="5"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="6"/>
+      <c r="C852" s="5"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="6"/>
+      <c r="C853" s="5"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="6"/>
+      <c r="C854" s="5"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="6"/>
+      <c r="C855" s="5"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="6"/>
+      <c r="C856" s="5"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="6"/>
+      <c r="C857" s="5"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="6"/>
+      <c r="C858" s="5"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="6"/>
+      <c r="C859" s="5"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="6"/>
+      <c r="C860" s="5"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="6"/>
+      <c r="C861" s="5"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="6"/>
+      <c r="C862" s="5"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="6"/>
+      <c r="C863" s="5"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="6"/>
+      <c r="C864" s="5"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="6"/>
+      <c r="C865" s="5"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="6"/>
+      <c r="C866" s="5"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="6"/>
+      <c r="C867" s="5"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="6"/>
+      <c r="C868" s="5"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="6"/>
+      <c r="C869" s="5"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="6"/>
+      <c r="C870" s="5"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="6"/>
+      <c r="C871" s="5"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="6"/>
+      <c r="C872" s="5"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="6"/>
+      <c r="C873" s="5"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="6"/>
+      <c r="C874" s="5"/>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="6"/>
+      <c r="C875" s="5"/>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="6"/>
+      <c r="C876" s="5"/>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="6"/>
+      <c r="C877" s="5"/>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="6"/>
+      <c r="C878" s="5"/>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="6"/>
+      <c r="C879" s="5"/>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="6"/>
+      <c r="C880" s="5"/>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="6"/>
+      <c r="C881" s="5"/>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="6"/>
+      <c r="C882" s="5"/>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="6"/>
+      <c r="C883" s="5"/>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="6"/>
+      <c r="C884" s="5"/>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="6"/>
+      <c r="C885" s="5"/>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="6"/>
+      <c r="C886" s="5"/>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="6"/>
+      <c r="C887" s="5"/>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="6"/>
+      <c r="C888" s="5"/>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="6"/>
+      <c r="C889" s="5"/>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="6"/>
+      <c r="C890" s="5"/>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="6"/>
+      <c r="C891" s="5"/>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="6"/>
+      <c r="C892" s="5"/>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="6"/>
+      <c r="C893" s="5"/>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="6"/>
+      <c r="C894" s="5"/>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="6"/>
+      <c r="C895" s="5"/>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="6"/>
+      <c r="C896" s="5"/>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="6"/>
+      <c r="C897" s="5"/>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="6"/>
+      <c r="C898" s="5"/>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="6"/>
+      <c r="C899" s="5"/>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="6"/>
+      <c r="C900" s="5"/>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="6"/>
+      <c r="C901" s="5"/>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="6"/>
+      <c r="C902" s="5"/>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="6"/>
+      <c r="C903" s="5"/>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="6"/>
+      <c r="C904" s="5"/>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="6"/>
+      <c r="C905" s="5"/>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="6"/>
+      <c r="C906" s="5"/>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="6"/>
+      <c r="C907" s="5"/>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="6"/>
+      <c r="C908" s="5"/>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="6"/>
+      <c r="C909" s="5"/>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="6"/>
+      <c r="C910" s="5"/>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="6"/>
+      <c r="C911" s="5"/>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="6"/>
+      <c r="C912" s="5"/>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="6"/>
+      <c r="C913" s="5"/>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="6"/>
+      <c r="C914" s="5"/>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="6"/>
+      <c r="C915" s="5"/>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="6"/>
+      <c r="C916" s="5"/>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="6"/>
+      <c r="C917" s="5"/>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="6"/>
+      <c r="C918" s="5"/>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="6"/>
+      <c r="C919" s="5"/>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="6"/>
+      <c r="C920" s="5"/>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="6"/>
+      <c r="C921" s="5"/>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="6"/>
+      <c r="C922" s="5"/>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="6"/>
+      <c r="C923" s="5"/>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="6"/>
+      <c r="C924" s="5"/>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="6"/>
+      <c r="C925" s="5"/>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="6"/>
+      <c r="C926" s="5"/>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="6"/>
+      <c r="C927" s="5"/>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="6"/>
+      <c r="C928" s="5"/>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="6"/>
+      <c r="C929" s="5"/>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="6"/>
+      <c r="C930" s="5"/>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="6"/>
+      <c r="C931" s="5"/>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="6"/>
+      <c r="C932" s="5"/>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="6"/>
+      <c r="C933" s="5"/>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="6"/>
+      <c r="C934" s="5"/>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="6"/>
+      <c r="C935" s="5"/>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="6"/>
+      <c r="C936" s="5"/>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="6"/>
+      <c r="C937" s="5"/>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="6"/>
+      <c r="C938" s="5"/>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="6"/>
+      <c r="C939" s="5"/>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="6"/>
+      <c r="C940" s="5"/>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="6"/>
+      <c r="C941" s="5"/>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="6"/>
+      <c r="C942" s="5"/>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="6"/>
+      <c r="C943" s="5"/>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="6"/>
+      <c r="C944" s="5"/>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="6"/>
+      <c r="C945" s="5"/>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="6"/>
+      <c r="C946" s="5"/>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="6"/>
+      <c r="C947" s="5"/>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="6"/>
+      <c r="C948" s="5"/>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="6"/>
+      <c r="C949" s="5"/>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="6"/>
+      <c r="C950" s="5"/>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="6"/>
+      <c r="C951" s="5"/>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="6"/>
+      <c r="C952" s="5"/>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="6"/>
+      <c r="C953" s="5"/>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="6"/>
+      <c r="C954" s="5"/>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="6"/>
+      <c r="C955" s="5"/>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="6"/>
+      <c r="C956" s="5"/>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="6"/>
+      <c r="C957" s="5"/>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="6"/>
+      <c r="C958" s="5"/>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="6"/>
+      <c r="C959" s="5"/>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="6"/>
+      <c r="C960" s="5"/>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="6"/>
+      <c r="C961" s="5"/>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="6"/>
+      <c r="C962" s="5"/>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="6"/>
+      <c r="C963" s="5"/>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="6"/>
+      <c r="C964" s="5"/>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="6"/>
+      <c r="C965" s="5"/>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="6"/>
+      <c r="C966" s="5"/>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="6"/>
+      <c r="C967" s="5"/>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="6"/>
+      <c r="C968" s="5"/>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="6"/>
+      <c r="C969" s="5"/>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="6"/>
+      <c r="C970" s="5"/>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="6"/>
+      <c r="C971" s="5"/>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="6"/>
+      <c r="C972" s="5"/>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="6"/>
+      <c r="C973" s="5"/>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="6"/>
+      <c r="C974" s="5"/>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="6"/>
+      <c r="C975" s="5"/>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="6"/>
+      <c r="C976" s="5"/>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="6"/>
+      <c r="C977" s="5"/>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="6"/>
+      <c r="C978" s="5"/>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="6"/>
+      <c r="C979" s="5"/>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="6"/>
+      <c r="C980" s="5"/>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="6"/>
+      <c r="C981" s="5"/>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="6"/>
+      <c r="C982" s="5"/>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="6"/>
+      <c r="C983" s="5"/>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="6"/>
+      <c r="C984" s="5"/>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="6"/>
+      <c r="C985" s="5"/>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="6"/>
+      <c r="C986" s="5"/>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="6"/>
+      <c r="C987" s="5"/>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="6"/>
+      <c r="C988" s="5"/>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="6"/>
+      <c r="C989" s="5"/>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="6"/>
+      <c r="C990" s="5"/>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="6"/>
+      <c r="C991" s="5"/>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="6"/>
+      <c r="C992" s="5"/>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="6"/>
+      <c r="C993" s="5"/>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="6"/>
+      <c r="C994" s="5"/>
     </row>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="6"/>
+      <c r="C995" s="5"/>
     </row>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="6"/>
+      <c r="C996" s="5"/>
     </row>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="6"/>
+      <c r="C997" s="5"/>
     </row>
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="6"/>
+      <c r="C998" s="5"/>
     </row>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="6"/>
+      <c r="C999" s="5"/>
     </row>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="6"/>
+      <c r="C1000" s="5"/>
     </row>
     <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1001" s="6"/>
+      <c r="C1001" s="5"/>
     </row>
     <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1002" s="6"/>
+      <c r="C1002" s="5"/>
     </row>
     <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1003" s="6"/>
+      <c r="C1003" s="5"/>
     </row>
     <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1004" s="6"/>
+      <c r="C1004" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3948,39 +3926,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="15.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="15.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="16" t="b">
+      <c r="E1" s="15" t="b">
         <f aca="false">AND(E2:E832)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="b">
+      <c r="F1" s="15" t="b">
         <f aca="false">AND(F2:F832)</f>
         <v>1</v>
       </c>
@@ -3989,7 +3967,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -3998,21 +3976,20 @@
       <c r="D2" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E2" s="6" t="b">
+      <c r="E2" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="b">
+      <c r="F2" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4021,21 +3998,20 @@
       <c r="D3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="E3" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="b">
+      <c r="F3" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4044,21 +4020,20 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -4067,21 +4042,20 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -4090,21 +4064,20 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -4113,51 +4086,44 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4179,175 +4145,175 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25" t="b">
+      <c r="B1" s="24" t="b">
         <f aca="false">AND(B2:B905)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="6" t="b">
+      <c r="B2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>45661</v>
       </c>
-      <c r="B3" s="6" t="b">
+      <c r="B3" s="5" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4369,42 +4335,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="21.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="21.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>45655</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="27" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>45701</v>
       </c>
@@ -4428,7 +4393,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4436,75 +4401,75 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="12.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="11" t="n">
         <v>45671</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="30" t="b">
+      <c r="J2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="30" t="b">
+      <c r="K2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -4528,82 +4493,81 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="11" t="n">
         <v>45671</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="30" t="b">
+      <c r="J2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="30" t="b">
+      <c r="K2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -4627,76 +4591,75 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="11" t="n">
         <v>45671</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="30" t="b">
+      <c r="H2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="30" t="b">
+      <c r="I2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="3"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4717,56 +4680,55 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="6" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4789,56 +4751,55 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4861,7 +4822,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4870,67 +4831,67 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="12.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4953,35 +4914,35 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="b">
+      <c r="E1" s="10" t="b">
         <f aca="false">AND(E2:E906)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="11" t="b">
+      <c r="F1" s="10" t="b">
         <f aca="false">AND(F2:F911)</f>
         <v>1</v>
       </c>
@@ -4990,20 +4951,20 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="11" t="n">
         <v>45656</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="11" t="n">
         <v>45667</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="E2" s="6" t="b">
+      <c r="E2" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="b">
+      <c r="F2" s="5" t="b">
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5012,20 +4973,20 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>45657</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>45670</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="E3" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="b">
+      <c r="F3" s="5" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5034,20 +4995,20 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>45658</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>45671</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="b">
+      <c r="F4" s="5" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5057,244 +5018,244 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5313,38 +5274,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="b">
+      <c r="C1" s="15" t="b">
         <f aca="false">AND(C2:C938)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="b">
+      <c r="D1" s="15" t="b">
         <f aca="false">AND(D2:D938)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -5353,11 +5311,11 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="b">
+      <c r="C2" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="b">
+      <c r="D2" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5369,11 +5327,11 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="b">
+      <c r="C3" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="b">
+      <c r="D3" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5385,58 +5343,58 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="b">
+      <c r="C4" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="b">
+      <c r="D4" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5458,487 +5416,419 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16" t="e">
+      <c r="G1" s="15" t="e">
         <f aca="false">AND(G2:G938)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H1" s="16" t="e">
+      <c r="H1" s="15" t="e">
         <f aca="false">AND(H2:H938)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5960,383 +5850,109 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
+    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6356,445 +5972,114 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6814,383 +6099,121 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
+    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7210,184 +6233,184 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7408,251 +6431,251 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="b">
+      <c r="D1" s="15" t="b">
         <f aca="false">AND(D2:D900)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="20" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="20" t="n">
         <v>45672</v>
       </c>
-      <c r="D2" s="6" t="b">
+      <c r="D2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="20" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="6" t="b">
+      <c r="D3" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -394,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -848,7 +852,7 @@
   <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4020,11 +4024,11 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4042,11 +4046,11 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4064,11 +4068,11 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4086,11 +4090,11 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4893,6 +4897,65 @@
       </c>
       <c r="J2" s="6" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="12.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Does Expert exist?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -217,8 +159,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Does Expert exist?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -851,7 +849,7 @@
   </sheetPr>
   <dimension ref="A1:C1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$873, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -897,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$873, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -909,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$873, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3926,412 +3924,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="15.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="12.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="15" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="15" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="12.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="24" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="5" t="b">
-        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
-        <v>45661</v>
-      </c>
-      <c r="B3" s="5" t="b">
-        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4374,7 +3966,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="27" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C804))</f>
         <v>45701</v>
       </c>
     </row>
@@ -4389,7 +3981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4489,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4587,7 +4179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4676,7 +4268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4747,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4818,7 +4410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4910,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5024,7 +4616,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="5" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F2" s="5" t="b">
@@ -5046,7 +4638,7 @@
         <v>72</v>
       </c>
       <c r="E3" s="5" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F3" s="5" t="b">
@@ -5068,7 +4660,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="5" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F4" s="5" t="b">
@@ -5375,11 +4967,11 @@
         <v>9</v>
       </c>
       <c r="C2" s="16" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="16" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5391,11 +4983,11 @@
         <v>10</v>
       </c>
       <c r="C3" s="16" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="16" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5407,11 +4999,11 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="16" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5910,17 +5502,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="12.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
   </cols>
   <sheetData>
@@ -5928,29 +5519,35 @@
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>13</v>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
     <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6032,267 +5629,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="12"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="12.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -6486,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6749,4 +6085,410 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="15.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="12.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="15" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="21"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="21"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="21"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="21"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="21"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="21"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="12.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>45661</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4509,7 +4509,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6310,7 +6310,7 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -290,10 +290,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -3928,10 +3934,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3951,8 +3957,11 @@
       <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,9 +3972,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="27" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C804))</f>
         <v>45701</v>
       </c>
@@ -4005,13 +4017,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>6</v>
@@ -4020,19 +4032,19 @@
         <v>7</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,10 +4065,10 @@
         <v>45671</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -4066,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4100,16 +4112,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>6</v>
@@ -4118,19 +4130,19 @@
         <v>7</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +4163,10 @@
         <v>45671</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -4164,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4198,16 +4210,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>6</v>
@@ -4216,13 +4228,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4287,25 +4299,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,7 +4331,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.9</v>
@@ -4358,25 +4370,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,10 +4402,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>4</v>
@@ -4432,34 +4444,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,16 +4485,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.5</v>
@@ -4509,7 +4521,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4521,19 +4533,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -302,6 +303,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -311,6 +315,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -318,12 +328,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -549,7 +553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,10 +667,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3936,7 +3936,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3998,32 +3998,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>6</v>
@@ -4031,53 +4029,36 @@
       <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="11" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45656</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>45671</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
+        <f aca="false">E2+20</f>
+        <v>45676</v>
+      </c>
+      <c r="G2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="29" t="b">
+      <c r="H2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -4098,86 +4079,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45656</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>45671</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4196,78 +4134,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45656</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>45671</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4285,16 +4188,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,43 +4205,16 @@
         <v>42</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4356,59 +4232,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4427,80 +4286,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4519,46 +4340,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="12.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
+++ b/ampl-data-input-excel/15-public-holidays/15-public-holidays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="D1:D2 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3936,8 +3936,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4082,7 +4082,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4137,7 +4137,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4191,7 +4191,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4235,7 +4235,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4289,7 +4289,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4343,7 +4343,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4416,8 +4416,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4458,7 +4458,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4821,7 +4821,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="D1:D2 C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4960,7 +4960,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="D1:D2 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5394,7 +5394,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="D1:D2 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5521,7 +5521,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="1" sqref="D1:D2 H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5719,7 +5719,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="D1:D2 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5984,7 +5984,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="1" sqref="D1:D2 H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6200,7 +6200,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="1" sqref="D1:D2 K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
